--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-JP-ServiceRequest.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-JP-ServiceRequest.xlsx
@@ -453,7 +453,7 @@
     <t>このリソースが適合を主張するプロファイル</t>
   </si>
   <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
   </si>
   <si>
     <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
@@ -793,7 +793,7 @@
     <t>"注文の状況。"</t>
   </si>
   <si>
-    <t>状態は一般的にリクエスターの完全なコントロール下にあります。彼らは、注文が下書きかアクティブかを決定し、アクティベートされた後は、完了、キャンセル、または一時停止するかどうかを決定する責任があります。パフォーマーの活動に関連する状態は、対応するイベント（一般的なディスカッションには [イベントパターン](event.html) を参照）または [タスク](task.html) リソースを使用して反映されます。</t>
+    <t>状態は一般的にリクエスターの完全なコントロール下にあります。彼らは、注文が下書きかアクティブかを決定し、アクティベートされた後は、完了、キャンセル、または一時停止するかどうかを決定する責任があります。パフォーマーの活動に関連する状態は、対応するイベント（一般的なディスカッションには [イベントパターン](http://hl7.org/fhir/R4/event.html) を参照）または [タスク](http://hl7.org/fhir/R4/task.html) リソースを使用して反映されます。</t>
   </si>
   <si>
     <t>required</t>
@@ -1308,7 +1308,7 @@
     <t>このサービスをリクエストする理由や正当性について、コード化またはテキスト形式で説明または正当化すること。通常は請求目的のためです。「supportingInfo」で参照されるリソースに関連する場合があります。</t>
   </si>
   <si>
-    <t>この要素は、どのような理由で紹介がなされたかを示し、サービスを提供する方法、または提供するかどうかを決定するために使用されることがあります。データが自由（符号化されていない）テキストである場合は、[CT Scan example](servicerequest-example-di.html)に示されているように、`CodeableConcept.text` 要素を使用してください。</t>
+    <t>この要素は、どのような理由で紹介がなされたかを示し、サービスを提供する方法、または提供するかどうかを決定するために使用されることがあります。データが自由（符号化されていない）テキストである場合は、[CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html)に示されているように、`CodeableConcept.text` 要素を使用してください。</t>
   </si>
   <si>
     <t>サービス調査の依頼理由を正当化する診断または問題コード。</t>
@@ -1342,7 +1342,7 @@
     <t>「このサービスが要求されている理由を正当化する他のリソースを示します。」サポート情報で言及されているリソースに関連する場合があります。</t>
   </si>
   <si>
-    <t>この要素は紹介理由を表し、サービスの提供方法、あるいは提供されるかどうかを決定するために使用される可能性があります。できるだけ具体的にするために、*Observation*または*Condition*への参照が可能な場合は使用するべきです。そうでない場合、*DiagnosticReport*への参照をする場合は、`DiagnosticReport.conclusion`および/または`DiagnosticReport.conclusionCode`に結果が含まれている必要があります。*DocumentReference*への参照を使用する場合は、対象の文書には、このサービスの要求の関連する理由を提供する明確な発見用語が含まれている必要があります。[CTスキャンの例](servicerequest-example-di.html)に示されるように、データがフリー（コード化されていない）テキストの場合は、`ServiceRequest.reasonCode`内のCodeableConceptテキスト要素を使用してください。</t>
+    <t>この要素は紹介理由を表し、サービスの提供方法、あるいは提供されるかどうかを決定するために使用される可能性があります。できるだけ具体的にするために、*Observation*または*Condition*への参照が可能な場合は使用するべきです。そうでない場合、*DiagnosticReport*への参照をする場合は、`DiagnosticReport.conclusion`および/または`DiagnosticReport.conclusionCode`に結果が含まれている必要があります。*DocumentReference*への参照を使用する場合は、対象の文書には、このサービスの要求の関連する理由を提供する明確な発見用語が含まれている必要があります。[CTスキャンの例](http://hl7.org/fhir/R4/servicerequest-example-di.html)に示されるように、データがフリー（コード化されていない）テキストの場合は、`ServiceRequest.reasonCode`内のCodeableConceptテキスト要素を使用してください。</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1418,7 +1418,7 @@
     <t>実験室の手順で使用される1つ以上の標本。</t>
   </si>
   <si>
-    <t>多くの診断手順ではサンプルが必要ですが、要求自体は実際にはサンプルに関するものではありません。この要素は、既存のサンプルに対して診断が要求され、要求が適用されるサンプルを指す場合に使用されます。逆に、要求が先に未知のサンプルで入力された場合、[試料](specimen.html)リソースはServiceRequestを指します。</t>
+    <t>多くの診断手順ではサンプルが必要ですが、要求自体は実際にはサンプルに関するものではありません。この要素は、既存のサンプルに対して診断が要求され、要求が適用されるサンプルを指す場合に使用されます。逆に、要求が先に未知のサンプルで入力された場合、[試料](http://hl7.org/fhir/R4/specimen.html)リソースはServiceRequestを指します。</t>
   </si>
   <si>
     <t>SPM</t>
